--- a/Consultant_Active_Reports/Active_Candidates_Brad_Houston.xlsx
+++ b/Consultant_Active_Reports/Active_Candidates_Brad_Houston.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,11 +490,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45985</v>
+        <v>45993</v>
       </c>
     </row>
     <row r="3">
@@ -574,11 +574,11 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45986</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="6">
@@ -611,21 +611,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>755</v>
+        <v>766</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Vega Security</t>
+          <t>Cogent Security</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Enterprise AE (Mid-ATL)</t>
+          <t>Enterprise Account Executive (US)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Brendan McMenimen</t>
+          <t>Jared Seavey</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45985</v>
+        <v>45980</v>
       </c>
     </row>
     <row r="8">
@@ -653,12 +653,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Jared Seavey</t>
+          <t>Brendan McMenimen</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
       <c r="F8" s="2" t="n">
@@ -681,7 +681,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Brendan McMenimen</t>
+          <t>Kevin Burns</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -690,26 +690,26 @@
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45980</v>
+        <v>45988</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>766</v>
+        <v>777</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cogent Security</t>
+          <t>Adaptive6</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive (US)</t>
+          <t>SE Director</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Kevin Burns</t>
+          <t>Hermann Hesse</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -737,16 +737,16 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Hermann Hesse</t>
+          <t>Brendan Cox</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45988</v>
+        <v>45978</v>
       </c>
     </row>
     <row r="12">
@@ -765,12 +765,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Brendan Cox</t>
+          <t>Sean Valois</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
       <c r="F12" s="2" t="n">
@@ -807,7 +807,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>777</v>
+        <v>791</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -816,77 +816,77 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SE Director</t>
+          <t>Head of Sales (US)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sean Valois</t>
+          <t>Brian Henger</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>45978</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>791</v>
+        <v>817</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Adaptive6</t>
+          <t>Oasis Security</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Head of Sales (US)</t>
+          <t>Senior Sales Engineer (West/Mountain)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Brian Henger</t>
+          <t>Mary Greenlee</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F15" s="2" t="n">
-        <v>45987</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>817</v>
+        <v>824</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Oasis Security</t>
+          <t>Blockaid</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Senior Sales Engineer (West/Mountain)</t>
+          <t>Technical Account Manager</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Mary Greenlee</t>
+          <t>Derek Appleby</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
       <c r="F16" s="2" t="n">
-        <v>45985</v>
+        <v>45986</v>
       </c>
     </row>
     <row r="17">
@@ -905,63 +905,63 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Derek Appleby</t>
+          <t>Adam Palmer</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F17" s="2" t="n">
-        <v>45986</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Blockaid</t>
+          <t>Legit Security</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Technical Account Manager</t>
+          <t>VP of Sales</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Adam Palmer</t>
+          <t>Jim Underwood</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>45986</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>826</v>
+        <v>834</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Legit Security</t>
+          <t>Blockaid</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>VP of Sales</t>
+          <t>Regional Director US</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Jim Underwood</t>
+          <t>Greg Hilsenrath</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="F19" s="2" t="n">
-        <v>45987</v>
+        <v>45996</v>
       </c>
     </row>
     <row r="20">
@@ -989,43 +989,15 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Greg Hilsenrath</t>
+          <t>Jon Webster</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
       <c r="F20" s="2" t="n">
-        <v>45996</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>834</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Blockaid</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Regional Director US</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Jon Webster</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>CV Sent</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="n">
         <v>45987</v>
       </c>
     </row>

--- a/Consultant_Active_Reports/Active_Candidates_Brad_Houston.xlsx
+++ b/Consultant_Active_Reports/Active_Candidates_Brad_Houston.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,7 +555,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>541</v>
+        <v>462</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -564,26 +564,26 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CSM - Singapore</t>
+          <t>CS2 - Blockaid - Technical Account Manager (New York)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Lim Yi Jun</t>
+          <t>Olivia Lo</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45995</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>669</v>
+        <v>462</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -592,124 +592,124 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Head of Marketing</t>
+          <t>CS2 - Blockaid - Technical Account Manager (New York)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Iulia Mihailescu</t>
+          <t>Sean MacWilliams</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>3rd Interview</t>
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45985</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>766</v>
+        <v>541</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cogent Security</t>
+          <t>Blockaid</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive (US)</t>
+          <t>CSM - Singapore</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Jared Seavey</t>
+          <t>Lim Yi Jun</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45980</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>766</v>
+        <v>669</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cogent Security</t>
+          <t>Blockaid</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive (US)</t>
+          <t>Head of Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Brendan McMenimen</t>
+          <t>Jeff Meisel</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>4th Interview</t>
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45980</v>
+        <v>45979</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>766</v>
+        <v>669</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cogent Security</t>
+          <t>Blockaid</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive (US)</t>
+          <t>Head of Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Kevin Burns</t>
+          <t>Iulia Mihailescu</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45988</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Adaptive6</t>
+          <t>Cogent Security</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SE Director</t>
+          <t>Enterprise Account Executive (US)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Hermann Hesse</t>
+          <t>Kevin Burns</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -723,21 +723,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Adaptive6</t>
+          <t>Cogent Security</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SE Director</t>
+          <t>Enterprise Account Executive (US)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Brendan Cox</t>
+          <t>Jared Seavey</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -746,35 +746,35 @@
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45978</v>
+        <v>45980</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Adaptive6</t>
+          <t>Cogent Security</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SE Director</t>
+          <t>Enterprise Account Executive (US)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sean Valois</t>
+          <t>Brendan McMenimen</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>45978</v>
+        <v>45980</v>
       </c>
     </row>
     <row r="13">
@@ -793,21 +793,21 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Itai Heller</t>
+          <t>Brendan Cox</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4th Interview</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>45989</v>
+        <v>45978</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>791</v>
+        <v>777</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -816,68 +816,68 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Head of Sales (US)</t>
+          <t>SE Director</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Brian Henger</t>
+          <t>Sean Valois</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>2nd Interview</t>
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>45987</v>
+        <v>45978</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>817</v>
+        <v>777</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Oasis Security</t>
+          <t>Adaptive6</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Senior Sales Engineer (West/Mountain)</t>
+          <t>SE Director</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Mary Greenlee</t>
+          <t>Itai Heller</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>4th Interview</t>
         </is>
       </c>
       <c r="F15" s="2" t="n">
-        <v>45985</v>
+        <v>45989</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>824</v>
+        <v>777</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Blockaid</t>
+          <t>Adaptive6</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Technical Account Manager</t>
+          <t>SE Director</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Derek Appleby</t>
+          <t>Hermann Hesse</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -886,59 +886,59 @@
         </is>
       </c>
       <c r="F16" s="2" t="n">
-        <v>45986</v>
+        <v>45988</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>824</v>
+        <v>787</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Blockaid</t>
+          <t>Allium</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Technical Account Manager</t>
+          <t>Solutions Engineer</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Adam Palmer</t>
+          <t>Silja Petasch</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>3rd Interview</t>
         </is>
       </c>
       <c r="F17" s="2" t="n">
-        <v>45992</v>
+        <v>45989</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>826</v>
+        <v>791</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Legit Security</t>
+          <t>Adaptive6</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>VP of Sales</t>
+          <t>Head of Sales (US)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jim Underwood</t>
+          <t>Brian Henger</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
       <c r="F18" s="2" t="n">
@@ -947,21 +947,21 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>834</v>
+        <v>817</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Blockaid</t>
+          <t>Oasis Security</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Regional Director US</t>
+          <t>Senior Sales Engineer (West/Mountain)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Greg Hilsenrath</t>
+          <t>Mary Greenlee</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -970,34 +970,146 @@
         </is>
       </c>
       <c r="F19" s="2" t="n">
-        <v>45996</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
+        <v>824</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Blockaid</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Technical Account Manager</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Adam Palmer</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1st Interview</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>824</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Blockaid</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Technical Account Manager</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Derek Appleby</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>CV Sent</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>45986</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>826</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Legit Security</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>VP of Sales</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Jim Underwood</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1st Interview</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
         <v>834</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>Blockaid</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Regional Director US</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Greg Hilsenrath</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1st Interview</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>834</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Blockaid</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Regional Director US</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>Jon Webster</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>CV Sent</t>
         </is>
       </c>
-      <c r="F20" s="2" t="n">
+      <c r="F24" s="2" t="n">
         <v>45987</v>
       </c>
     </row>

--- a/Consultant_Active_Reports/Active_Candidates_Brad_Houston.xlsx
+++ b/Consultant_Active_Reports/Active_Candidates_Brad_Houston.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,7 +556,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3rd Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
     </row>
@@ -737,32 +737,32 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>731</v>
+        <v>754</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Oscilar</t>
+          <t>Vega Security</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Enterprise AE x5</t>
+          <t>Enterprise AE (PacNW)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Michael Diaz</t>
+          <t>GEORGE MATHEW</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -771,37 +771,37 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Enterprise AE (PacNW)</t>
+          <t>Enterprise AE (Mid-ATL)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>GEORGE MATHEW</t>
+          <t>Jared Seavey</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>755</v>
+        <v>766</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Vega Security</t>
+          <t>Cogent Security</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Enterprise AE (Mid-ATL)</t>
+          <t>Enterprise Account Executive (US)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jared Seavey</t>
+          <t>Chris Gardner</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -826,37 +826,37 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Chris Gardner</t>
+          <t>Jared Seavey</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>2nd Interview</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>766</v>
+        <v>777</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Cogent Security</t>
+          <t>Adaptive6</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive (US)</t>
+          <t>SE Director</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Jared Seavey</t>
+          <t>Christopher Hoesly</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
     </row>
@@ -876,12 +876,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Christopher Hoesly</t>
+          <t>Hermann Hesse</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
     </row>
@@ -901,82 +901,82 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Hermann Hesse</t>
+          <t>Brendan Cox</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>777</v>
+        <v>787</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Adaptive6</t>
+          <t>Allium</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SE Director</t>
+          <t>Solutions Engineer</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Brendan Cox</t>
+          <t>Silja Petasch</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>4th Interview</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>787</v>
+        <v>817</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Allium</t>
+          <t>Oasis Security</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Solutions Engineer</t>
+          <t>Senior Sales Engineer (West/Mountain)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Silja Petasch</t>
+          <t>Erik Staley</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4th Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>791</v>
+        <v>817</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Adaptive6</t>
+          <t>Oasis Security</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Head of Sales (US)</t>
+          <t>Senior Sales Engineer (West/Mountain)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Brian Henger</t>
+          <t>Mary Greenlee</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -987,21 +987,21 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Oasis Security</t>
+          <t>TraceBit</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Senior Sales Engineer (West/Mountain)</t>
+          <t>Sales Engineer</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Erik Staley</t>
+          <t>Ian Campbell</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1012,107 +1012,107 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Oasis Security</t>
+          <t>TraceBit</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Senior Sales Engineer (West/Mountain)</t>
+          <t>Sales Engineer</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mary Greenlee</t>
+          <t>Katie Pistello</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TraceBit</t>
+          <t>Blockaid</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Sales Engineer</t>
+          <t>Technical Account Manager</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Ian Campbell</t>
+          <t>Adam Palmer</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TraceBit</t>
+          <t>Blockaid</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Sales Engineer</t>
+          <t>Technical Account Manager</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Juan Mazo</t>
+          <t>Derek Appleby</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>823</v>
+        <v>840</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TraceBit</t>
+          <t>Blockaid</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Sales Engineer</t>
+          <t>Head of EMEA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Katie Pistello</t>
+          <t>Anthony Yeung</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>824</v>
+        <v>840</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Technical Account Manager</t>
+          <t>Head of EMEA</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Derek Appleby</t>
+          <t>Dan Foster</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1137,7 +1137,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>824</v>
+        <v>840</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1146,23 +1146,23 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Technical Account Manager</t>
+          <t>Head of EMEA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Adam Palmer</t>
+          <t>Daniel Lattimer</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>834</v>
+        <v>852</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1171,23 +1171,23 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Regional Director US</t>
+          <t>Sales Enablement Manager</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Jon Webster</t>
+          <t>Caitlin Litscher</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>1st Interview</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>840</v>
+        <v>852</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1196,37 +1196,37 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Head of EMEA</t>
+          <t>Sales Enablement Manager</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Dan Foster</t>
+          <t>Renée-Claude Thériault</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>840</v>
+        <v>857</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Blockaid</t>
+          <t>Adaptive6</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Head of EMEA</t>
+          <t>Sales Engineer (Israel)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Daniel Lattimer</t>
+          <t>Barak Abekasis</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1237,26 +1237,26 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Blockaid</t>
+          <t>Adaptive6</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Sales Enablement Manager</t>
+          <t>Sales Engineer (Israel)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Caitlin Litscher</t>
+          <t>Nathan Hart</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>2nd Interview</t>
         </is>
       </c>
     </row>
@@ -1276,110 +1276,60 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Barak Abekasis</t>
+          <t>Rotem Froimovici</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>857</v>
+        <v>869</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Adaptive6</t>
+          <t>Native Security</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Sales Engineer (Israel)</t>
+          <t>Enterprise Account Executive (Chicago)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Nathan Hart</t>
+          <t>Brendan McMenimen</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>857</v>
+        <v>869</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Adaptive6</t>
+          <t>Native Security</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Sales Engineer (Israel)</t>
+          <t>Enterprise Account Executive (Chicago)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Rotem Froimovici</t>
+          <t>Chris Gardner</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
-        <is>
-          <t>1st Interview</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>869</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Native Security</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Enterprise Account Executive (Chicago)</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Brendan McMenimen</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>CV Sent</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>869</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Native Security</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Enterprise Account Executive (Chicago)</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Chris Gardner</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
         <is>
           <t>CV Sent</t>
         </is>
